--- a/output/sites/clustering with PCs/clust_PCs_findk_validity_measures_PS.xlsx
+++ b/output/sites/clustering with PCs/clust_PCs_findk_validity_measures_PS.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.939</v>
+        <v>1.275</v>
       </c>
       <c r="E2" t="n">
-        <v>1.153</v>
+        <v>1.556</v>
       </c>
       <c r="F2" t="n">
-        <v>1.113</v>
+        <v>1.673</v>
       </c>
       <c r="G2" t="n">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
       <c r="H2" t="n">
-        <v>2.402</v>
+        <v>3.665</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.939</v>
+        <v>1.275</v>
       </c>
       <c r="E3" t="n">
-        <v>0.757</v>
+        <v>0.838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.757</v>
+        <v>0.863</v>
       </c>
       <c r="G3" t="n">
-        <v>0.679</v>
+        <v>0.768</v>
       </c>
       <c r="H3" t="n">
-        <v>2.402</v>
+        <v>3.665</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.525</v>
+        <v>0.994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.596</v>
+        <v>0.604</v>
       </c>
       <c r="F4" t="n">
-        <v>0.625</v>
+        <v>0.643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.601</v>
+        <v>0.724</v>
       </c>
       <c r="H4" t="n">
-        <v>1.955</v>
+        <v>3.404</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -497,25 +497,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.939</v>
+        <v>0.994</v>
       </c>
       <c r="E5" t="n">
-        <v>0.757</v>
+        <v>1.099</v>
       </c>
       <c r="F5" t="n">
-        <v>0.757</v>
+        <v>1.018</v>
       </c>
       <c r="G5" t="n">
-        <v>0.629</v>
+        <v>0.48</v>
       </c>
       <c r="H5" t="n">
-        <v>2.402</v>
+        <v>2.396</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -526,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.525</v>
+        <v>1.275</v>
       </c>
       <c r="E6" t="n">
-        <v>0.889</v>
+        <v>0.838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.865</v>
+        <v>0.863</v>
       </c>
       <c r="G6" t="n">
-        <v>0.44</v>
+        <v>0.664</v>
       </c>
       <c r="H6" t="n">
-        <v>2.352</v>
+        <v>3.665</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -555,22 +555,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.525</v>
+        <v>0.994</v>
       </c>
       <c r="E7" t="n">
-        <v>0.596</v>
+        <v>0.604</v>
       </c>
       <c r="F7" t="n">
-        <v>0.625</v>
+        <v>0.643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.592</v>
+        <v>0.709</v>
       </c>
       <c r="H7" t="n">
-        <v>1.955</v>
+        <v>3.404</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -584,22 +584,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.469</v>
+        <v>0.78</v>
       </c>
       <c r="E8" t="n">
-        <v>0.542</v>
+        <v>0.561</v>
       </c>
       <c r="F8" t="n">
-        <v>0.498</v>
+        <v>0.539</v>
       </c>
       <c r="G8" t="n">
-        <v>0.467</v>
+        <v>0.583</v>
       </c>
       <c r="H8" t="n">
-        <v>1.978</v>
+        <v>2.194</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -613,22 +613,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.525</v>
+        <v>0.78</v>
       </c>
       <c r="E9" t="n">
-        <v>0.889</v>
+        <v>0.859</v>
       </c>
       <c r="F9" t="n">
-        <v>0.865</v>
+        <v>0.896</v>
       </c>
       <c r="G9" t="n">
-        <v>0.44</v>
+        <v>0.347</v>
       </c>
       <c r="H9" t="n">
-        <v>2.352</v>
+        <v>2.226</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -642,22 +642,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.469</v>
+        <v>1.275</v>
       </c>
       <c r="E10" t="n">
-        <v>0.365</v>
+        <v>0.838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.369</v>
+        <v>0.863</v>
       </c>
       <c r="G10" t="n">
-        <v>0.631</v>
+        <v>0.651</v>
       </c>
       <c r="H10" t="n">
-        <v>2.182</v>
+        <v>3.665</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -671,25 +671,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.525</v>
+        <v>0.526</v>
       </c>
       <c r="E11" t="n">
-        <v>0.596</v>
+        <v>0.494</v>
       </c>
       <c r="F11" t="n">
-        <v>0.625</v>
+        <v>0.511</v>
       </c>
       <c r="G11" t="n">
-        <v>0.508</v>
+        <v>0.402</v>
       </c>
       <c r="H11" t="n">
-        <v>1.955</v>
+        <v>2.494</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -700,25 +700,25 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.469</v>
+        <v>0.78</v>
       </c>
       <c r="E12" t="n">
-        <v>0.542</v>
+        <v>0.561</v>
       </c>
       <c r="F12" t="n">
-        <v>0.498</v>
+        <v>0.539</v>
       </c>
       <c r="G12" t="n">
-        <v>0.467</v>
+        <v>0.583</v>
       </c>
       <c r="H12" t="n">
-        <v>1.978</v>
+        <v>2.194</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -729,25 +729,25 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.525</v>
+        <v>0.78</v>
       </c>
       <c r="E13" t="n">
-        <v>0.504</v>
+        <v>0.859</v>
       </c>
       <c r="F13" t="n">
-        <v>0.477</v>
+        <v>0.896</v>
       </c>
       <c r="G13" t="n">
-        <v>0.53</v>
+        <v>0.325</v>
       </c>
       <c r="H13" t="n">
-        <v>2.124</v>
+        <v>2.226</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -758,25 +758,25 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>0.788</v>
+        <v>1.275</v>
       </c>
       <c r="E14" t="n">
-        <v>0.865</v>
+        <v>0.838</v>
       </c>
       <c r="F14" t="n">
-        <v>0.865</v>
+        <v>0.863</v>
       </c>
       <c r="G14" t="n">
-        <v>0.266</v>
+        <v>0.651</v>
       </c>
       <c r="H14" t="n">
-        <v>2.428</v>
+        <v>3.665</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -787,25 +787,25 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.469</v>
+        <v>0.526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.365</v>
+        <v>0.294</v>
       </c>
       <c r="F15" t="n">
-        <v>0.369</v>
+        <v>0.175</v>
       </c>
       <c r="G15" t="n">
-        <v>0.631</v>
+        <v>0.658</v>
       </c>
       <c r="H15" t="n">
-        <v>2.182</v>
+        <v>3.07</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -816,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.525</v>
+        <v>0.526</v>
       </c>
       <c r="E16" t="n">
-        <v>0.793</v>
+        <v>0.494</v>
       </c>
       <c r="F16" t="n">
-        <v>0.708</v>
+        <v>0.511</v>
       </c>
       <c r="G16" t="n">
-        <v>0.011</v>
+        <v>0.402</v>
       </c>
       <c r="H16" t="n">
-        <v>1.615</v>
+        <v>2.494</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -845,22 +845,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.469</v>
+        <v>0.78</v>
       </c>
       <c r="E17" t="n">
-        <v>0.542</v>
+        <v>0.561</v>
       </c>
       <c r="F17" t="n">
-        <v>0.498</v>
+        <v>0.539</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.583</v>
       </c>
       <c r="H17" t="n">
-        <v>1.978</v>
+        <v>2.194</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -874,22 +874,22 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.525</v>
+        <v>0.78</v>
       </c>
       <c r="E18" t="n">
-        <v>0.504</v>
+        <v>0.859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.477</v>
+        <v>0.896</v>
       </c>
       <c r="G18" t="n">
-        <v>0.463</v>
+        <v>0.325</v>
       </c>
       <c r="H18" t="n">
-        <v>2.124</v>
+        <v>2.226</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -906,19 +906,19 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>0.559</v>
+        <v>0.512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.301</v>
+        <v>0.745</v>
       </c>
       <c r="F19" t="n">
-        <v>0.219</v>
+        <v>0.618</v>
       </c>
       <c r="G19" t="n">
-        <v>0.657</v>
+        <v>0.238</v>
       </c>
       <c r="H19" t="n">
-        <v>1.829</v>
+        <v>3.337</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -932,22 +932,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.788</v>
+        <v>0.526</v>
       </c>
       <c r="E20" t="n">
-        <v>0.865</v>
+        <v>0.294</v>
       </c>
       <c r="F20" t="n">
-        <v>0.865</v>
+        <v>0.175</v>
       </c>
       <c r="G20" t="n">
-        <v>0.266</v>
+        <v>0.658</v>
       </c>
       <c r="H20" t="n">
-        <v>2.428</v>
+        <v>3.07</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -961,22 +961,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.469</v>
+        <v>0.512</v>
       </c>
       <c r="E21" t="n">
-        <v>0.365</v>
+        <v>0.058</v>
       </c>
       <c r="F21" t="n">
-        <v>0.369</v>
+        <v>0.058</v>
       </c>
       <c r="G21" t="n">
-        <v>0.631</v>
+        <v>0.944</v>
       </c>
       <c r="H21" t="n">
-        <v>2.182</v>
+        <v>3.237</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -990,22 +990,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.525</v>
+        <v>0.526</v>
       </c>
       <c r="E22" t="n">
-        <v>0.793</v>
+        <v>0.494</v>
       </c>
       <c r="F22" t="n">
-        <v>0.708</v>
+        <v>0.511</v>
       </c>
       <c r="G22" t="n">
-        <v>0.011</v>
+        <v>0.402</v>
       </c>
       <c r="H22" t="n">
-        <v>1.615</v>
+        <v>2.494</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -1019,22 +1019,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.342</v>
+        <v>0.78</v>
       </c>
       <c r="E23" t="n">
-        <v>0.368</v>
+        <v>0.561</v>
       </c>
       <c r="F23" t="n">
-        <v>0.406</v>
+        <v>0.539</v>
       </c>
       <c r="G23" t="n">
-        <v>0.48</v>
+        <v>0.469</v>
       </c>
       <c r="H23" t="n">
-        <v>1.879</v>
+        <v>2.194</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -1048,22 +1048,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.525</v>
+        <v>0.598</v>
       </c>
       <c r="E24" t="n">
-        <v>0.504</v>
+        <v>0.485</v>
       </c>
       <c r="F24" t="n">
-        <v>0.477</v>
+        <v>0.449</v>
       </c>
       <c r="G24" t="n">
         <v>0.463</v>
       </c>
       <c r="H24" t="n">
-        <v>2.124</v>
+        <v>2.027</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -1080,19 +1080,19 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>0.559</v>
+        <v>0.512</v>
       </c>
       <c r="E25" t="n">
-        <v>0.301</v>
+        <v>0.745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.219</v>
+        <v>0.618</v>
       </c>
       <c r="G25" t="n">
-        <v>0.657</v>
+        <v>0.238</v>
       </c>
       <c r="H25" t="n">
-        <v>1.829</v>
+        <v>3.337</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -1106,22 +1106,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0.788</v>
+        <v>0.526</v>
       </c>
       <c r="E26" t="n">
-        <v>0.865</v>
+        <v>0.294</v>
       </c>
       <c r="F26" t="n">
-        <v>0.865</v>
+        <v>0.175</v>
       </c>
       <c r="G26" t="n">
-        <v>0.266</v>
+        <v>0.658</v>
       </c>
       <c r="H26" t="n">
-        <v>2.428</v>
+        <v>3.07</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -1135,22 +1135,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.469</v>
+        <v>0.512</v>
       </c>
       <c r="E27" t="n">
-        <v>0.365</v>
+        <v>0.058</v>
       </c>
       <c r="F27" t="n">
-        <v>0.369</v>
+        <v>0.058</v>
       </c>
       <c r="G27" t="n">
-        <v>0.57</v>
+        <v>0.944</v>
       </c>
       <c r="H27" t="n">
-        <v>2.182</v>
+        <v>3.237</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -1164,22 +1164,22 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.342</v>
+        <v>0.598</v>
       </c>
       <c r="E28" t="n">
-        <v>0.433</v>
+        <v>0.926</v>
       </c>
       <c r="F28" t="n">
-        <v>0.539</v>
+        <v>0.926</v>
       </c>
       <c r="G28" t="n">
-        <v>0.364</v>
+        <v>0.094</v>
       </c>
       <c r="H28" t="n">
-        <v>1.566</v>
+        <v>2.25</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -1193,25 +1193,25 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>0.525</v>
+        <v>0.526</v>
       </c>
       <c r="E29" t="n">
-        <v>0.546</v>
+        <v>0.494</v>
       </c>
       <c r="F29" t="n">
-        <v>0.546</v>
+        <v>0.511</v>
       </c>
       <c r="G29" t="n">
-        <v>0.228</v>
+        <v>0.402</v>
       </c>
       <c r="H29" t="n">
-        <v>1.683</v>
+        <v>2.494</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1222,25 +1222,25 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>0.342</v>
+        <v>0.78</v>
       </c>
       <c r="E30" t="n">
-        <v>0.368</v>
+        <v>0.561</v>
       </c>
       <c r="F30" t="n">
-        <v>0.406</v>
+        <v>0.539</v>
       </c>
       <c r="G30" t="n">
-        <v>0.48</v>
+        <v>0.469</v>
       </c>
       <c r="H30" t="n">
-        <v>1.879</v>
+        <v>2.194</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1251,25 +1251,25 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.525</v>
+        <v>0.598</v>
       </c>
       <c r="E31" t="n">
-        <v>0.504</v>
+        <v>0.485</v>
       </c>
       <c r="F31" t="n">
-        <v>0.477</v>
+        <v>0.449</v>
       </c>
       <c r="G31" t="n">
-        <v>0.377</v>
+        <v>0.463</v>
       </c>
       <c r="H31" t="n">
-        <v>2.124</v>
+        <v>2.027</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1280,25 +1280,25 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0.559</v>
+        <v>0.512</v>
       </c>
       <c r="E32" t="n">
-        <v>0.301</v>
+        <v>0.695</v>
       </c>
       <c r="F32" t="n">
-        <v>0.219</v>
+        <v>0.618</v>
       </c>
       <c r="G32" t="n">
-        <v>0.62</v>
+        <v>0.099</v>
       </c>
       <c r="H32" t="n">
-        <v>1.829</v>
+        <v>2.675</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1309,25 +1309,25 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>0.788</v>
+        <v>0.526</v>
       </c>
       <c r="E33" t="n">
-        <v>0.865</v>
+        <v>0.294</v>
       </c>
       <c r="F33" t="n">
-        <v>0.865</v>
+        <v>0.175</v>
       </c>
       <c r="G33" t="n">
-        <v>0.266</v>
+        <v>0.658</v>
       </c>
       <c r="H33" t="n">
-        <v>2.428</v>
+        <v>3.07</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1338,25 +1338,25 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>0.469</v>
+        <v>0.512</v>
       </c>
       <c r="E34" t="n">
-        <v>0.365</v>
+        <v>0.058</v>
       </c>
       <c r="F34" t="n">
-        <v>0.369</v>
+        <v>0.058</v>
       </c>
       <c r="G34" t="n">
-        <v>0.57</v>
+        <v>0.943</v>
       </c>
       <c r="H34" t="n">
-        <v>2.182</v>
+        <v>3.237</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1367,25 +1367,25 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0.342</v>
+        <v>0.598</v>
       </c>
       <c r="E35" t="n">
-        <v>0.433</v>
+        <v>0.926</v>
       </c>
       <c r="F35" t="n">
-        <v>0.539</v>
+        <v>0.926</v>
       </c>
       <c r="G35" t="n">
-        <v>0.347</v>
+        <v>0.094</v>
       </c>
       <c r="H35" t="n">
-        <v>1.566</v>
+        <v>2.25</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1396,23 +1396,25 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F36"/>
+        <v>0.528</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.494</v>
+      </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="H36" t="n">
-        <v>1.385</v>
+        <v>3.266</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1423,22 +1425,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>0.525</v>
+        <v>0.526</v>
       </c>
       <c r="E37" t="n">
-        <v>0.546</v>
+        <v>0.494</v>
       </c>
       <c r="F37" t="n">
-        <v>0.546</v>
+        <v>0.511</v>
       </c>
       <c r="G37" t="n">
-        <v>0.228</v>
+        <v>0.402</v>
       </c>
       <c r="H37" t="n">
-        <v>1.683</v>
+        <v>2.494</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -1452,22 +1454,20 @@
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.406</v>
-      </c>
+        <v>0.549</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.879</v>
+        <v>1.907</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1481,22 +1481,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>0.525</v>
+        <v>0.598</v>
       </c>
       <c r="E39" t="n">
-        <v>0.504</v>
+        <v>0.485</v>
       </c>
       <c r="F39" t="n">
-        <v>0.477</v>
+        <v>0.449</v>
       </c>
       <c r="G39" t="n">
-        <v>0.356</v>
+        <v>0.428</v>
       </c>
       <c r="H39" t="n">
-        <v>2.124</v>
+        <v>2.027</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -1510,22 +1510,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>0.559</v>
+        <v>0.512</v>
       </c>
       <c r="E40" t="n">
-        <v>0.301</v>
+        <v>0.695</v>
       </c>
       <c r="F40" t="n">
-        <v>0.219</v>
+        <v>0.618</v>
       </c>
       <c r="G40" t="n">
-        <v>0.62</v>
+        <v>0.099</v>
       </c>
       <c r="H40" t="n">
-        <v>1.829</v>
+        <v>2.675</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -1539,20 +1539,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F41"/>
+        <v>0.526</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.175</v>
+      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.658</v>
       </c>
       <c r="H41" t="n">
-        <v>2.65</v>
+        <v>3.07</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -1566,22 +1568,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0.469</v>
+        <v>0.512</v>
       </c>
       <c r="E42" t="n">
-        <v>0.365</v>
+        <v>0.058</v>
       </c>
       <c r="F42" t="n">
-        <v>0.369</v>
+        <v>0.058</v>
       </c>
       <c r="G42" t="n">
-        <v>0.57</v>
+        <v>0.943</v>
       </c>
       <c r="H42" t="n">
-        <v>2.182</v>
+        <v>3.237</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1595,22 +1597,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0.342</v>
+        <v>0.598</v>
       </c>
       <c r="E43" t="n">
-        <v>0.433</v>
+        <v>0.926</v>
       </c>
       <c r="F43" t="n">
-        <v>0.539</v>
+        <v>0.926</v>
       </c>
       <c r="G43" t="n">
-        <v>0.347</v>
+        <v>0.094</v>
       </c>
       <c r="H43" t="n">
-        <v>1.566</v>
+        <v>2.25</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -1624,20 +1626,22 @@
         <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="E44" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F44"/>
+        <v>0.528</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.494</v>
+      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="H44" t="n">
-        <v>1.385</v>
+        <v>3.266</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -1651,20 +1655,22 @@
         <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="E45" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F45"/>
+        <v>0.549</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.407</v>
+      </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="H45" t="n">
-        <v>2.094</v>
+        <v>2.188</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -1678,22 +1684,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>0.525</v>
+        <v>0.526</v>
       </c>
       <c r="E46" t="n">
-        <v>0.546</v>
+        <v>0.494</v>
       </c>
       <c r="F46" t="n">
-        <v>0.546</v>
+        <v>0.511</v>
       </c>
       <c r="G46" t="n">
-        <v>0.228</v>
+        <v>0.384</v>
       </c>
       <c r="H46" t="n">
-        <v>1.683</v>
+        <v>2.494</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -1707,22 +1713,20 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.425</v>
-      </c>
+        <v>0.549</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F47"/>
       <c r="G47" t="n">
-        <v>0.171</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.624</v>
+        <v>1.907</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -1736,22 +1740,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>0.525</v>
+        <v>0.598</v>
       </c>
       <c r="E48" t="n">
-        <v>0.504</v>
+        <v>0.485</v>
       </c>
       <c r="F48" t="n">
-        <v>0.477</v>
+        <v>0.449</v>
       </c>
       <c r="G48" t="n">
-        <v>0.356</v>
+        <v>0.369</v>
       </c>
       <c r="H48" t="n">
-        <v>2.124</v>
+        <v>2.027</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -1765,22 +1769,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>0.342</v>
+        <v>0.512</v>
       </c>
       <c r="E49" t="n">
-        <v>0.147</v>
+        <v>0.695</v>
       </c>
       <c r="F49" t="n">
-        <v>0.141</v>
+        <v>0.618</v>
       </c>
       <c r="G49" t="n">
-        <v>0.716</v>
+        <v>0.099</v>
       </c>
       <c r="H49" t="n">
-        <v>1.8</v>
+        <v>2.675</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -1797,19 +1801,19 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>0.559</v>
+        <v>0.526</v>
       </c>
       <c r="E50" t="n">
-        <v>0.301</v>
+        <v>0.294</v>
       </c>
       <c r="F50" t="n">
-        <v>0.219</v>
+        <v>0.175</v>
       </c>
       <c r="G50" t="n">
-        <v>0.62</v>
+        <v>0.658</v>
       </c>
       <c r="H50" t="n">
-        <v>1.829</v>
+        <v>3.07</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -1823,20 +1827,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="E51" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F51"/>
+        <v>0.512</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.058</v>
+      </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.943</v>
       </c>
       <c r="H51" t="n">
-        <v>2.65</v>
+        <v>3.237</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -1850,22 +1856,20 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.369</v>
-      </c>
+        <v>0.598</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F52"/>
       <c r="G52" t="n">
-        <v>0.566</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>2.182</v>
+        <v>2.046</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -1879,22 +1883,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0.342</v>
+        <v>0.528</v>
       </c>
       <c r="E53" t="n">
-        <v>0.433</v>
+        <v>0.484</v>
       </c>
       <c r="F53" t="n">
-        <v>0.539</v>
+        <v>0.494</v>
       </c>
       <c r="G53" t="n">
-        <v>0.254</v>
+        <v>0.403</v>
       </c>
       <c r="H53" t="n">
-        <v>1.566</v>
+        <v>3.266</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -1908,20 +1912,22 @@
         <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F54"/>
+        <v>0.549</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.407</v>
+      </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="H54" t="n">
-        <v>1.385</v>
+        <v>2.188</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -1938,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.788</v>
+        <v>0.918</v>
       </c>
       <c r="E55" t="e">
         <v>#NUM!</v>
@@ -1948,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2.094</v>
+        <v>2.359</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
